--- a/scimagojr/scimagojr_2002.xlsx
+++ b/scimagojr/scimagojr_2002.xlsx
@@ -146,12 +146,12 @@
     <t>Greece</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -161,12 +161,12 @@
     <t>Singapore</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -194,12 +194,12 @@
     <t>Iran</t>
   </si>
   <si>
+    <t>Thailand</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
@@ -218,12 +218,12 @@
     <t>Malaysia</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -236,12 +236,12 @@
     <t>Morocco</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -254,36 +254,36 @@
     <t>Jordan</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
     <t>Kuwait</t>
   </si>
   <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Lebanon</t>
   </si>
   <si>
+    <t>Armenia</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -317,12 +317,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -407,18 +407,18 @@
     <t>Bahrain</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Malta</t>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
@@ -431,24 +431,24 @@
     <t>Gabon</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
+    <t>Fiji</t>
+  </si>
+  <si>
     <t>Guatemala</t>
   </si>
   <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Fiji</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -470,21 +470,21 @@
     <t>Monaco</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -497,39 +497,39 @@
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eritrea</t>
   </si>
   <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
@@ -539,36 +539,36 @@
     <t>Guinea</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
+    <t>Haïti</t>
   </si>
   <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
-    <t>Haïti</t>
+    <t>Democratic Republic Congo</t>
   </si>
   <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>Democratic Republic Congo</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -578,33 +578,33 @@
     <t>Sierra Leone</t>
   </si>
   <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Samoa</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
@@ -626,76 +626,85 @@
     <t>Grenada</t>
   </si>
   <si>
+    <t>Palau</t>
+  </si>
+  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
     <t>Burundi</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Liberia</t>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Dominica</t>
   </si>
   <si>
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Tonga</t>
+    <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Aruba</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>San Marino</t>
   </si>
   <si>
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>San Marino</t>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
   </si>
   <si>
     <t>French Southern Territories</t>
@@ -710,22 +719,13 @@
     <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
+    <t>Maldives</t>
+  </si>
+  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
     <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
   </si>
 </sst>
 </file>
@@ -869,22 +869,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>397188</v>
+        <v>399007</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>375537</v>
+        <v>378109</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>19993532</v>
+        <v>21807956</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8644955</v>
+        <v>9209626</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>50.34</v>
+        <v>54.66</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -898,22 +898,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>106938</v>
+        <v>107529</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>104825</v>
+        <v>105637</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2894779</v>
+        <v>3115872</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>709784</v>
+        <v>736850</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>27.07</v>
+        <v>28.98</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -927,22 +927,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>105976</v>
+        <v>106362</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>96869</v>
+        <v>97407</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4797729</v>
+        <v>5231449</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>984960</v>
+        <v>1041574</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>45.27</v>
+        <v>49.19</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -956,22 +956,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>95649</v>
+        <v>96229</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>92134</v>
+        <v>92914</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3599493</v>
+        <v>3888477</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>784485</v>
+        <v>820064</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>37.63</v>
+        <v>40.41</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>68555</v>
+        <v>68449</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>68194</v>
+        <v>68161</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1091353</v>
+        <v>1176251</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>548956</v>
+        <v>588611</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>15.92</v>
+        <v>17.18</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1014,22 +1014,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>67082</v>
+        <v>67347</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>64520</v>
+        <v>64876</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2466983</v>
+        <v>2670058</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>468858</v>
+        <v>489431</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>36.78</v>
+        <v>39.65</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1043,22 +1043,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>49235</v>
+        <v>49371</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>46934</v>
+        <v>47152</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2174162</v>
+        <v>2379461</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>356312</v>
+        <v>375772</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>44.16</v>
+        <v>48.2</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1072,22 +1072,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>49108</v>
+        <v>49186</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>47110</v>
+        <v>47290</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1789295</v>
+        <v>1933170</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>358108</v>
+        <v>376315</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>36.44</v>
+        <v>39.3</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1101,22 +1101,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>37341</v>
+        <v>37417</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>36973</v>
+        <v>37084</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>442136</v>
+        <v>477117</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>132848</v>
+        <v>140774</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>11.84</v>
+        <v>12.75</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1130,22 +1130,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>35817</v>
+        <v>35838</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>33991</v>
+        <v>34066</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1191225</v>
+        <v>1289349</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>251959</v>
+        <v>262912</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>33.26</v>
+        <v>35.98</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1159,22 +1159,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>33332</v>
+        <v>33449</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>31337</v>
+        <v>31503</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1440989</v>
+        <v>1581917</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>256494</v>
+        <v>271781</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>43.23</v>
+        <v>47.29</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1188,22 +1188,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>29178</v>
+        <v>29211</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>28122</v>
+        <v>28208</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>652176</v>
+        <v>719266</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>211933</v>
+        <v>232628</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.35</v>
+        <v>24.62</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1217,22 +1217,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>27475</v>
+        <v>27510</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>26287</v>
+        <v>26378</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1394309</v>
+        <v>1514646</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>182224</v>
+        <v>189285</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>50.75</v>
+        <v>55.06</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1246,22 +1246,22 @@
         <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>23414</v>
+        <v>23572</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>23038</v>
+        <v>23245</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>631558</v>
+        <v>681078</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>109042</v>
+        <v>112825</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>26.97</v>
+        <v>28.89</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1275,22 +1275,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20108</v>
+        <v>20151</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>19487</v>
+        <v>19557</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>949993</v>
+        <v>1027699</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>123738</v>
+        <v>128630</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>47.24</v>
+        <v>51</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1304,22 +1304,22 @@
         <v>30</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>19190</v>
+        <v>19218</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>18834</v>
+        <v>18897</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>501248</v>
+        <v>544050</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>153236</v>
+        <v>161819</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>26.12</v>
+        <v>28.31</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1333,22 +1333,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>18989</v>
+        <v>19062</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>18146</v>
+        <v>18262</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1017433</v>
+        <v>1101785</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>107619</v>
+        <v>111701</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>53.58</v>
+        <v>57.8</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1362,22 +1362,22 @@
         <v>21</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>18195</v>
+        <v>18233</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>17921</v>
+        <v>17984</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>318065</v>
+        <v>342347</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>76614</v>
+        <v>79536</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>17.48</v>
+        <v>18.78</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1391,22 +1391,22 @@
         <v>12</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>16462</v>
+        <v>16528</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>16138</v>
+        <v>16232</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>438762</v>
+        <v>475656</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>76534</v>
+        <v>78558</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>26.65</v>
+        <v>28.78</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1420,22 +1420,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>14900</v>
+        <v>14924</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>14323</v>
+        <v>14374</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>651775</v>
+        <v>708310</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>71244</v>
+        <v>73617</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>43.74</v>
+        <v>47.46</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1449,22 +1449,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>13143</v>
+        <v>13171</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>12631</v>
+        <v>12691</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>568524</v>
+        <v>622523</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>65211</v>
+        <v>68291</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>43.26</v>
+        <v>47.26</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1478,22 +1478,22 @@
         <v>36</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>12734</v>
+        <v>12728</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>12161</v>
+        <v>12173</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>284655</v>
+        <v>312309</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>62694</v>
+        <v>66401</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>22.35</v>
+        <v>24.54</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1507,22 +1507,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10812</v>
+        <v>10897</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10320</v>
+        <v>10417</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>416661</v>
+        <v>453127</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>45743</v>
+        <v>47590</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>38.54</v>
+        <v>41.58</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1536,22 +1536,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10423</v>
+        <v>10470</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>9997</v>
+        <v>10066</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>523828</v>
+        <v>570861</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>59550</v>
+        <v>62066</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>50.26</v>
+        <v>54.52</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1565,22 +1565,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10324</v>
+        <v>10360</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>10073</v>
+        <v>10123</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>465534</v>
+        <v>503729</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>56805</v>
+        <v>58896</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>45.09</v>
+        <v>48.62</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1594,22 +1594,22 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>8944</v>
+        <v>8970</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>8650</v>
+        <v>8692</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>362342</v>
+        <v>399489</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>39421</v>
+        <v>40884</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>40.51</v>
+        <v>44.54</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1626,19 +1626,19 @@
         <v>8283</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>7978</v>
+        <v>8000</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>259097</v>
+        <v>282415</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>37329</v>
+        <v>39014</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>31.28</v>
+        <v>34.1</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1649,25 +1649,25 @@
         <v>43</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>7832</v>
+        <v>7862</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>7718</v>
+        <v>7681</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>154302</v>
+        <v>208721</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>32428</v>
+        <v>39391</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>19.7</v>
+        <v>26.55</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>554</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1678,25 +1678,25 @@
         <v>44</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>7830</v>
+        <v>7846</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>7641</v>
+        <v>7749</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>190862</v>
+        <v>165945</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>36986</v>
+        <v>33418</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>24.38</v>
+        <v>21.15</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1710,22 +1710,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>7309</v>
+        <v>7317</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>6975</v>
+        <v>6993</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>334051</v>
+        <v>365492</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>45581</v>
+        <v>47868</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>45.7</v>
+        <v>49.95</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1739,22 +1739,22 @@
         <v>21</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>7072</v>
+        <v>7105</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>7021</v>
+        <v>7058</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>65860</v>
+        <v>71339</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>16770</v>
+        <v>17793</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>9.31</v>
+        <v>10.04</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1768,22 +1768,22 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>6980</v>
+        <v>7011</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>6821</v>
+        <v>6869</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>234797</v>
+        <v>257359</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>21601</v>
+        <v>22272</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>33.64</v>
+        <v>36.71</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1794,25 +1794,25 @@
         <v>48</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>6294</v>
+        <v>6308</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>6146</v>
+        <v>5957</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>172147</v>
+        <v>264380</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>22582</v>
+        <v>31916</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>27.35</v>
+        <v>41.91</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>540</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1823,25 +1823,25 @@
         <v>49</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>6286</v>
+        <v>6305</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5925</v>
+        <v>6169</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>239540</v>
+        <v>186169</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>30261</v>
+        <v>23397</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>38.11</v>
+        <v>29.53</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>633</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1855,22 +1855,22 @@
         <v>30</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>6217</v>
+        <v>6234</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>6053</v>
+        <v>6080</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>169447</v>
+        <v>184470</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>32947</v>
+        <v>34925</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>27.26</v>
+        <v>29.59</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1884,22 +1884,22 @@
         <v>52</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>6092</v>
+        <v>6139</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>5755</v>
+        <v>5810</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>158130</v>
+        <v>174878</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>33435</v>
+        <v>36353</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>25.96</v>
+        <v>28.49</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1916,19 +1916,19 @@
         <v>5485</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>5361</v>
+        <v>5379</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>193353</v>
+        <v>211100</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>29842</v>
+        <v>31162</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>35.25</v>
+        <v>38.49</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1942,22 +1942,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4426</v>
+        <v>4444</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>4163</v>
+        <v>4187</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>167792</v>
+        <v>182500</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>15608</v>
+        <v>16211</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>37.91</v>
+        <v>41.07</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1971,22 +1971,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3759</v>
+        <v>3774</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>3716</v>
+        <v>3735</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>77561</v>
+        <v>85468</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>13976</v>
+        <v>15050</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>20.63</v>
+        <v>22.65</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2000,22 +2000,22 @@
         <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3339</v>
+        <v>3344</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>3294</v>
+        <v>3304</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>52131</v>
+        <v>56335</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>8918</v>
+        <v>9269</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>15.61</v>
+        <v>16.85</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2029,22 +2029,22 @@
         <v>36</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>3169</v>
+        <v>3177</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>65640</v>
+        <v>71212</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>23858</v>
+        <v>25067</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>20.49</v>
+        <v>22.21</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2055,25 +2055,25 @@
         <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2965</v>
+        <v>2996</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2909</v>
+        <v>2939</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>94294</v>
+        <v>86028</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>16665</v>
+        <v>11326</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>31.8</v>
+        <v>28.71</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2084,25 +2084,25 @@
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2944</v>
+        <v>2966</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2881</v>
+        <v>2914</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>77962</v>
+        <v>101969</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>10504</v>
+        <v>17576</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>26.48</v>
+        <v>34.38</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>396</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2116,22 +2116,22 @@
         <v>21</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>46717</v>
+        <v>50324</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>8276</v>
+        <v>8537</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>16.33</v>
+        <v>17.58</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2145,22 +2145,22 @@
         <v>21</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>2667</v>
+        <v>2689</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2625</v>
+        <v>2649</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>38319</v>
+        <v>41814</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>7623</v>
+        <v>7990</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>14.37</v>
+        <v>15.55</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2174,22 +2174,22 @@
         <v>21</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2432</v>
+        <v>2443</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>55081</v>
+        <v>59678</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>8875</v>
+        <v>9198</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>22.33</v>
+        <v>24.13</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2203,22 +2203,22 @@
         <v>21</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2267</v>
+        <v>2272</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>44773</v>
+        <v>48816</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>5987</v>
+        <v>6272</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>19.43</v>
+        <v>21.2</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2232,22 +2232,22 @@
         <v>36</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>45567</v>
+        <v>50759</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>5773</v>
+        <v>6347</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>21.36</v>
+        <v>23.75</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2264,19 +2264,19 @@
         <v>1938</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>43218</v>
+        <v>47904</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>8388</v>
+        <v>8940</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>22.3</v>
+        <v>24.72</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2287,25 +2287,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1645</v>
+        <v>1662</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1566</v>
+        <v>1654</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>24448</v>
+        <v>20171</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>6405</v>
+        <v>3053</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>14.86</v>
+        <v>12.14</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>353</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2316,25 +2316,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1635</v>
+        <v>1575</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>18682</v>
+        <v>27195</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>2933</v>
+        <v>6945</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>11.37</v>
+        <v>16.45</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>213</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2348,22 +2348,22 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>22935</v>
+        <v>25849</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>5398</v>
+        <v>5955</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>15.08</v>
+        <v>16.97</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2377,22 +2377,22 @@
         <v>30</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>29874</v>
+        <v>32559</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3467</v>
+        <v>3546</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>19.81</v>
+        <v>21.56</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2406,22 +2406,22 @@
         <v>30</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>16945</v>
+        <v>18333</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>2897</v>
+        <v>2971</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>12.2</v>
+        <v>13.19</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2435,22 +2435,22 @@
         <v>52</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>26966</v>
+        <v>30069</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4890</v>
+        <v>5580</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>19.84</v>
+        <v>22.09</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2461,25 +2461,25 @@
         <v>73</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1237</v>
+        <v>1248</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1215</v>
+        <v>1238</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>21051</v>
+        <v>19434</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>4640</v>
+        <v>3639</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>17.02</v>
+        <v>15.57</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>235</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2490,25 +2490,25 @@
         <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>18183</v>
+        <v>22936</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3519</v>
+        <v>4913</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>14.76</v>
+        <v>18.53</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2522,22 +2522,22 @@
         <v>21</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>17615</v>
+        <v>19371</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2455</v>
+        <v>2586</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>14.5</v>
+        <v>15.88</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2551,22 +2551,22 @@
         <v>30</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>28571</v>
+        <v>31164</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3882</v>
+        <v>4183</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>26.88</v>
+        <v>29.23</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2580,22 +2580,22 @@
         <v>52</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>30233</v>
+        <v>33149</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3626</v>
+        <v>3858</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>38.96</v>
+        <v>42.61</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2609,22 +2609,22 @@
         <v>36</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>14952</v>
+        <v>16553</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1671</v>
+        <v>1794</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>19.7</v>
+        <v>21.78</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2635,25 +2635,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>21143</v>
+        <v>23086</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3302</v>
+        <v>2580</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>28.27</v>
+        <v>30.38</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2664,25 +2664,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>20976</v>
+        <v>22584</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2256</v>
+        <v>3401</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>28.08</v>
+        <v>29.91</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>284</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2696,22 +2696,22 @@
         <v>52</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>12641</v>
+        <v>13831</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1973</v>
+        <v>2115</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>18.06</v>
+        <v>19.87</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2725,22 +2725,22 @@
         <v>36</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>15301</v>
+        <v>17115</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1380</v>
+        <v>1437</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>23.04</v>
+        <v>25.7</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2757,19 +2757,19 @@
         <v>650</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>24132</v>
+        <v>17503</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2102</v>
+        <v>2594</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>37.13</v>
+        <v>26.93</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2783,22 +2783,22 @@
         <v>12</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>15872</v>
+        <v>26723</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>2383</v>
+        <v>2218</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>24.53</v>
+        <v>41.18</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>252</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2812,22 +2812,22 @@
         <v>36</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>11835</v>
+        <v>13104</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>976</v>
+        <v>1044</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>18.76</v>
+        <v>20.67</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2841,22 +2841,22 @@
         <v>36</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>13842</v>
+        <v>15302</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1180</v>
+        <v>1246</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>24.03</v>
+        <v>26.47</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2867,25 +2867,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>29192</v>
+        <v>8257</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2377</v>
+        <v>1533</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>59.45</v>
+        <v>16.55</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>370</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2896,25 +2896,25 @@
         <v>88</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>7561</v>
+        <v>31782</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1438</v>
+        <v>2528</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>15.43</v>
+        <v>64.6</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>214</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2928,22 +2928,22 @@
         <v>21</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>8951</v>
+        <v>9750</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1144</v>
+        <v>1214</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>18.61</v>
+        <v>20.23</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2957,22 +2957,22 @@
         <v>30</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>444</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>15994</v>
+        <v>17259</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1004</v>
+        <v>1034</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>34.92</v>
+        <v>37.77</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2986,22 +2986,22 @@
         <v>12</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>13296</v>
+        <v>14387</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1647</v>
+        <v>1799</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>29.48</v>
+        <v>31.55</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3015,22 +3015,22 @@
         <v>21</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>9611</v>
+        <v>10507</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1003</v>
+        <v>1065</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>22.4</v>
+        <v>24.38</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3044,22 +3044,22 @@
         <v>30</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>413</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>13832</v>
+        <v>15044</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1826</v>
+        <v>1926</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>32.39</v>
+        <v>35.31</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3073,22 +3073,22 @@
         <v>12</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>3285</v>
+        <v>3594</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>8.03</v>
+        <v>8.72</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3102,22 +3102,22 @@
         <v>36</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>9051</v>
+        <v>10156</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>813</v>
+        <v>865</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>25.28</v>
+        <v>28.29</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3131,22 +3131,22 @@
         <v>12</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>8554</v>
+        <v>9548</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>781</v>
+        <v>849</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>25.01</v>
+        <v>27.84</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3160,22 +3160,22 @@
         <v>30</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>324</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>9965</v>
+        <v>10928</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1058</v>
+        <v>1151</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>29.4</v>
+        <v>32.33</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3189,22 +3189,22 @@
         <v>14</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>12860</v>
+        <v>14037</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1076</v>
+        <v>1143</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>38.97</v>
+        <v>42.28</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3221,19 +3221,19 @@
         <v>306</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>14626</v>
+        <v>15889</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1079</v>
+        <v>1135</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>47.8</v>
+        <v>51.92</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3244,25 +3244,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>302</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>7477</v>
+        <v>2875</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>638</v>
+        <v>515</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>24.76</v>
+        <v>9.52</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3273,25 +3273,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>2628</v>
+        <v>8220</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>498</v>
+        <v>691</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>8.7</v>
+        <v>27.31</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3308,19 +3308,19 @@
         <v>299</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>9350</v>
+        <v>10190</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1467</v>
+        <v>1592</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>31.27</v>
+        <v>34.08</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3340,16 +3340,16 @@
         <v>293</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>6877</v>
+        <v>7575</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1533</v>
+        <v>1645</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>23.08</v>
+        <v>25.42</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3369,16 +3369,16 @@
         <v>290</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>2779</v>
+        <v>3027</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>9.42</v>
+        <v>10.26</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3392,22 +3392,22 @@
         <v>52</v>
       </c>
       <c r="D89" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="E89" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="E89" s="0" t="n">
-        <v>293</v>
-      </c>
       <c r="F89" s="0" t="n">
-        <v>7441</v>
+        <v>8419</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1876</v>
+        <v>2145</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>25.31</v>
+        <v>28.54</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3421,22 +3421,22 @@
         <v>21</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3711</v>
+        <v>4002</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>15.4</v>
+        <v>16.4</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3456,16 +3456,16 @@
         <v>232</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>6446</v>
+        <v>7064</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>834</v>
+        <v>940</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>26.75</v>
+        <v>29.31</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3485,16 +3485,16 @@
         <v>230</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>5535</v>
+        <v>6053</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>23.06</v>
+        <v>25.22</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3508,22 +3508,22 @@
         <v>12</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>4644</v>
+        <v>5181</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>21.01</v>
+        <v>23.13</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3537,22 +3537,22 @@
         <v>52</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>6514</v>
+        <v>7045</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1123</v>
+        <v>1196</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>29.74</v>
+        <v>31.59</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3566,22 +3566,22 @@
         <v>30</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>4543</v>
+        <v>4860</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>21.33</v>
+        <v>22.92</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3601,16 +3601,16 @@
         <v>212</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>3515</v>
+        <v>3812</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>16.58</v>
+        <v>17.98</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3624,22 +3624,22 @@
         <v>30</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>4849</v>
+        <v>5277</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>25.12</v>
+        <v>27.2</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3653,22 +3653,22 @@
         <v>52</v>
       </c>
       <c r="D98" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="E98" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="E98" s="0" t="n">
-        <v>183</v>
-      </c>
       <c r="F98" s="0" t="n">
-        <v>3059</v>
+        <v>3383</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>16.54</v>
+        <v>18.09</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3682,22 +3682,22 @@
         <v>30</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>169</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>6175</v>
+        <v>6732</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>893</v>
+        <v>951</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>35.69</v>
+        <v>39.14</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3717,16 +3717,16 @@
         <v>139</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>4509</v>
+        <v>4917</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>30.06</v>
+        <v>32.78</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3740,22 +3740,22 @@
         <v>52</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>4625</v>
+        <v>4997</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>32.34</v>
+        <v>34.7</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3769,22 +3769,22 @@
         <v>21</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>2093</v>
+        <v>2337</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>15.28</v>
+        <v>16.81</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3798,22 +3798,22 @@
         <v>36</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3578</v>
+        <v>3942</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>26.31</v>
+        <v>28.77</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3833,16 +3833,16 @@
         <v>123</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4358</v>
+        <v>4674</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>32.77</v>
+        <v>35.14</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3856,22 +3856,22 @@
         <v>36</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1505</v>
+        <v>1688</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>11.67</v>
+        <v>12.98</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3891,16 +3891,16 @@
         <v>121</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1472</v>
+        <v>1669</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>11.68</v>
+        <v>13.25</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3920,16 +3920,16 @@
         <v>117</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>11039</v>
+        <v>12133</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>961</v>
+        <v>1006</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>91.99</v>
+        <v>101.11</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3943,22 +3943,22 @@
         <v>52</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>3515</v>
+        <v>3841</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>29.54</v>
+        <v>32.01</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3972,22 +3972,22 @@
         <v>36</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>2244</v>
+        <v>2490</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>19.18</v>
+        <v>21.1</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4001,22 +4001,22 @@
         <v>52</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>2278</v>
+        <v>2576</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>19.47</v>
+        <v>21.83</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4030,22 +4030,22 @@
         <v>30</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>4904</v>
+        <v>5440</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>44.18</v>
+        <v>48.57</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4062,19 +4062,19 @@
         <v>104</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>2945</v>
+        <v>3235</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>28.32</v>
+        <v>31.11</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4094,16 +4094,16 @@
         <v>88</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2006</v>
+        <v>2238</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>21.8</v>
+        <v>24.33</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4114,25 +4114,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>91</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>3119</v>
+        <v>4526</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>322</v>
+        <v>191</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>34.27</v>
+        <v>49.74</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4143,25 +4143,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3333</v>
+        <v>3388</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>37.45</v>
+        <v>37.23</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4178,19 +4178,19 @@
         <v>85</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1974</v>
+        <v>2134</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>23.22</v>
+        <v>25.11</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4207,19 +4207,19 @@
         <v>85</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1882</v>
+        <v>2104</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>22.14</v>
+        <v>24.75</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4239,16 +4239,16 @@
         <v>82</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>2168</v>
+        <v>2359</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>26.12</v>
+        <v>28.42</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4268,16 +4268,16 @@
         <v>77</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>1534</v>
+        <v>1669</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>19.42</v>
+        <v>21.13</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4297,16 +4297,16 @@
         <v>69</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2271</v>
+        <v>2453</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>32.91</v>
+        <v>35.55</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4326,16 +4326,16 @@
         <v>62</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>2273</v>
+        <v>2414</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>33.43</v>
+        <v>35.5</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4346,25 +4346,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>63</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3154</v>
+        <v>930</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>49.28</v>
+        <v>14.31</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4375,25 +4375,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>64</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>846</v>
+        <v>3402</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>13.22</v>
+        <v>53.16</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4413,16 +4413,16 @@
         <v>60</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2764</v>
+        <v>3004</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>157</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>43.87</v>
+        <v>47.68</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4433,25 +4433,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>2108</v>
+        <v>1186</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>34</v>
+        <v>18.83</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4462,25 +4462,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1711</v>
+        <v>2293</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>29</v>
+        <v>37.59</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4491,25 +4491,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>59</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1025</v>
+        <v>1884</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>17.37</v>
+        <v>31.93</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4523,22 +4523,22 @@
         <v>52</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>1300</v>
+        <v>1471</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>22.81</v>
+        <v>25.36</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4558,16 +4558,16 @@
         <v>56</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2311</v>
+        <v>2562</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>41.27</v>
+        <v>45.75</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4587,16 +4587,16 @@
         <v>47</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1458</v>
+        <v>1582</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>26.51</v>
+        <v>28.76</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4610,22 +4610,22 @@
         <v>21</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1026</v>
+        <v>1134</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>20.12</v>
+        <v>21.81</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4645,16 +4645,16 @@
         <v>50</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>8.94</v>
+        <v>10.34</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4674,16 +4674,16 @@
         <v>43</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1350</v>
+        <v>1441</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>30.68</v>
+        <v>32.75</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4697,22 +4697,22 @@
         <v>14</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>40</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1597</v>
+        <v>1769</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>37.14</v>
+        <v>40.2</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4723,25 +4723,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D135" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E135" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="E135" s="0" t="n">
-        <v>41</v>
-      </c>
       <c r="F135" s="0" t="n">
-        <v>1130</v>
+        <v>1721</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>26.9</v>
+        <v>40.02</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4752,7 +4752,7 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>42</v>
@@ -4761,16 +4761,16 @@
         <v>41</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1480</v>
+        <v>1279</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>35.24</v>
+        <v>30.45</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4790,16 +4790,16 @@
         <v>41</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1094</v>
+        <v>1228</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>26.05</v>
+        <v>29.24</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4810,25 +4810,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1350</v>
+        <v>1185</v>
       </c>
       <c r="G138" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I138" s="0" t="n">
         <v>86</v>
-      </c>
-      <c r="H138" s="0" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="I138" s="0" t="n">
-        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4839,25 +4839,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1105</v>
+        <v>1477</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>26.95</v>
+        <v>36.02</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4877,16 +4877,16 @@
         <v>39</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1050</v>
+        <v>1146</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>26.25</v>
+        <v>28.65</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4900,22 +4900,22 @@
         <v>12</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1376</v>
+        <v>1536</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>35.28</v>
+        <v>38.4</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4935,16 +4935,16 @@
         <v>35</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>7.16</v>
+        <v>7.53</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4958,22 +4958,22 @@
         <v>30</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1081</v>
+        <v>1181</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>31.79</v>
+        <v>35.79</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4984,25 +4984,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1135</v>
+        <v>637</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>34.39</v>
+        <v>19.3</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5013,25 +5013,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>570</v>
+        <v>1232</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>17.27</v>
+        <v>37.33</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5051,16 +5051,16 @@
         <v>31</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>776</v>
+        <v>865</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>24.25</v>
+        <v>27.03</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5071,25 +5071,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1132</v>
+        <v>849</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>37.73</v>
+        <v>28.3</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5100,25 +5100,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D148" s="0" t="n">
-        <v>29</v>
-      </c>
       <c r="E148" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>3118</v>
+        <v>1249</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>107.52</v>
+        <v>41.63</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5138,16 +5138,16 @@
         <v>26</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>789</v>
+        <v>841</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>28.18</v>
+        <v>30.04</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5164,19 +5164,19 @@
         <v>28</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>791</v>
+        <v>3430</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>28.25</v>
+        <v>122.5</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5187,25 +5187,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>856</v>
+        <v>386</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>31.7</v>
+        <v>14.3</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5216,25 +5216,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>360</v>
+        <v>920</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>13.33</v>
+        <v>34.07</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5254,16 +5254,16 @@
         <v>25</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>12</v>
+        <v>19.6</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5283,16 +5283,16 @@
         <v>25</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>17.64</v>
+        <v>13.12</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5312,16 +5312,16 @@
         <v>23</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>22.22</v>
+        <v>24.43</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5341,16 +5341,16 @@
         <v>22</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>834</v>
+        <v>894</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>35</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>37.91</v>
+        <v>40.64</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5370,16 +5370,16 @@
         <v>21</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>31.14</v>
+        <v>34.67</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5393,22 +5393,22 @@
         <v>30</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>453</v>
+        <v>647</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>21.57</v>
+        <v>32.35</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5428,16 +5428,16 @@
         <v>20</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>774</v>
+        <v>849</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>38.7</v>
+        <v>42.45</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5457,16 +5457,16 @@
         <v>19</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>29</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>21.85</v>
+        <v>23.7</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5477,25 +5477,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="G161" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F161" s="0" t="n">
-        <v>589</v>
-      </c>
-      <c r="G161" s="0" t="n">
-        <v>32</v>
-      </c>
       <c r="H161" s="0" t="n">
-        <v>29.45</v>
+        <v>21.68</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5506,7 +5506,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>19</v>
@@ -5515,16 +5515,16 @@
         <v>18</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>222</v>
+        <v>493</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>11.68</v>
+        <v>25.95</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5535,25 +5535,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>382</v>
+        <v>234</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>21.22</v>
+        <v>12.32</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5567,22 +5567,22 @@
         <v>30</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>537</v>
+        <v>1143</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>31.59</v>
+        <v>63.5</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5599,19 +5599,19 @@
         <v>17</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1071</v>
+        <v>593</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>63</v>
+        <v>34.88</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5622,7 +5622,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>16</v>
@@ -5631,16 +5631,16 @@
         <v>15</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>21.5</v>
+        <v>15.56</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5651,25 +5651,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D167" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E167" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E167" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="F167" s="0" t="n">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>14.47</v>
+        <v>22.81</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5689,16 +5689,16 @@
         <v>14</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>43.29</v>
+        <v>47.43</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5718,16 +5718,16 @@
         <v>13</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>10.46</v>
+        <v>11.31</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5747,16 +5747,16 @@
         <v>13</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>22.54</v>
+        <v>24.85</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5767,25 +5767,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>825</v>
+        <v>432</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>68.75</v>
+        <v>36</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5796,25 +5796,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>403</v>
+        <v>898</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>33.58</v>
+        <v>74.83</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5834,16 +5834,16 @@
         <v>11</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>33</v>
+        <v>35.33</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5854,7 +5854,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>11</v>
@@ -5863,16 +5863,16 @@
         <v>10</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>14.45</v>
+        <v>28.45</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5883,25 +5883,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>279</v>
+        <v>412</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>25.36</v>
+        <v>37.45</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5912,7 +5912,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>11</v>
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>31.09</v>
+        <v>14.09</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5941,25 +5941,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>941</v>
+        <v>168</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>85.55</v>
+        <v>15.27</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5979,16 +5979,16 @@
         <v>11</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>20.18</v>
+        <v>21.45</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -5999,7 +5999,7 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>11</v>
@@ -6008,16 +6008,16 @@
         <v>11</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>147</v>
+        <v>1041</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>13.36</v>
+        <v>94.64</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6037,16 +6037,16 @@
         <v>9</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>24.9</v>
+        <v>27</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6066,16 +6066,16 @@
         <v>9</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="G181" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>51.22</v>
+        <v>56.44</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6095,16 +6095,16 @@
         <v>9</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="G182" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>34.67</v>
+        <v>39.11</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6124,16 +6124,16 @@
         <v>8</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>19.38</v>
+        <v>20.63</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6162,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6182,16 +6182,16 @@
         <v>6</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>7.67</v>
+        <v>8.33</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6211,16 +6211,16 @@
         <v>6</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>45.83</v>
+        <v>52.33</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6231,7 +6231,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>5</v>
@@ -6240,16 +6240,16 @@
         <v>5</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>74.2</v>
+        <v>30.4</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6260,7 +6260,7 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>5</v>
@@ -6269,16 +6269,16 @@
         <v>5</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>29.6</v>
+        <v>80</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6298,16 +6298,16 @@
         <v>4</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>66.75</v>
+        <v>73</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6318,7 +6318,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>4</v>
@@ -6327,16 +6327,16 @@
         <v>4</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>40.25</v>
+        <v>120.5</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6356,16 +6356,16 @@
         <v>4</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>27.75</v>
+        <v>33.25</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6376,7 +6376,7 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>4</v>
@@ -6385,16 +6385,16 @@
         <v>4</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>439</v>
+        <v>178</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>109.75</v>
+        <v>44.5</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6414,16 +6414,16 @@
         <v>4</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>30.75</v>
+        <v>31.75</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6434,7 +6434,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>3</v>
@@ -6443,16 +6443,16 @@
         <v>3</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1</v>
+        <v>22.33</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6463,7 +6463,7 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>3</v>
@@ -6472,16 +6472,16 @@
         <v>3</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>21.67</v>
+        <v>19</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6492,7 +6492,7 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>3</v>
@@ -6501,16 +6501,16 @@
         <v>3</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>28.67</v>
+        <v>1</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6521,7 +6521,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>3</v>
@@ -6530,16 +6530,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>18.33</v>
+        <v>13.33</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6550,7 +6550,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -6559,16 +6559,16 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>12</v>
+        <v>34.67</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6597,7 +6597,7 @@
         <v>8.33</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6608,25 +6608,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6637,25 +6637,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6666,25 +6666,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6695,7 +6695,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>2</v>
@@ -6704,16 +6704,16 @@
         <v>2</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>104.5</v>
+        <v>4.5</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6724,7 +6724,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>2</v>
@@ -6733,13 +6733,13 @@
         <v>2</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>28</v>
@@ -6753,25 +6753,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E205" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G205" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F205" s="0" t="n">
+      <c r="H205" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G205" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" s="0" t="n">
-        <v>10.5</v>
-      </c>
       <c r="I205" s="0" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6782,25 +6782,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>18.5</v>
+        <v>83</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6811,7 +6811,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>2</v>
@@ -6820,16 +6820,16 @@
         <v>2</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6840,7 +6840,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>2</v>
@@ -6849,16 +6849,16 @@
         <v>2</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>76.5</v>
+        <v>44</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6869,7 +6869,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -6878,16 +6878,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6898,7 +6898,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6907,16 +6907,16 @@
         <v>1</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6936,16 +6936,16 @@
         <v>1</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6956,7 +6956,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>1</v>
@@ -6965,16 +6965,16 @@
         <v>1</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6985,7 +6985,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>1</v>
@@ -6994,16 +6994,16 @@
         <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7023,16 +7023,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7043,7 +7043,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7072,7 +7072,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>1</v>
@@ -7081,16 +7081,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7101,7 +7101,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>1</v>
@@ -7110,16 +7110,16 @@
         <v>1</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7130,7 +7130,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>1</v>
@@ -7139,16 +7139,16 @@
         <v>1</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7159,7 +7159,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1</v>
@@ -7168,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7188,7 +7188,7 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>1</v>
@@ -7197,16 +7197,16 @@
         <v>1</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
